--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840486</v>
+        <v>438336.2585840487</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006065</v>
       </c>
     </row>
     <row r="9">
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,55 +1142,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1388,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,26 +1604,26 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1862,7 +1862,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>55.32415054247428</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,55 +1999,55 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2087,22 +2087,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>238.8022356950655</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>64.56505458062006</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>99.94299005688806</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>11.86372679529251</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2381,10 +2381,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>103.5335228664165</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>74.1800667629177</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2564,64 +2564,64 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="E27" t="n">
-        <v>90.90725545139047</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>97.88959590290918</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>126.9470391372502</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>62.11690385378651</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>118.6422217161165</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>125.2132019625774</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>81.94696239689884</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3740,28 +3740,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.9712663400187</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3986,64 +3986,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>200.3360962888297</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.2844662281158</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4364,13 +4364,13 @@
         <v>601.5428246748836</v>
       </c>
       <c r="V2" t="n">
-        <v>601.5428246748836</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W2" t="n">
-        <v>601.5428246748836</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X2" t="n">
-        <v>358.0940480307835</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y2" t="n">
         <v>114.6452713866835</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4410,16 +4410,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4504,10 +4504,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4550,19 +4550,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>656.0584510084244</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -5024,19 +5024,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5124,19 +5124,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
         <v>41.77557929797318</v>
@@ -5227,22 +5227,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5312,16 +5312,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5367,40 +5367,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5501,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>327.2640844659515</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,28 +5695,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D20" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E20" t="n">
-        <v>485.167420504237</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F20" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
-        <v>485.167420504237</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>728.6161971483371</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.2549444941228</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C21" t="n">
-        <v>346.8019152129958</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="D21" t="n">
-        <v>197.8675055517446</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="E21" t="n">
-        <v>197.8675055517446</v>
+        <v>495.7986708525336</v>
       </c>
       <c r="F21" t="n">
-        <v>197.8675055517446</v>
+        <v>349.2641128794186</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>210.5332874620341</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5835,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="22">
@@ -5932,16 +5932,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>499.3853800778592</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>380.2300195200815</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="C24" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>380.2300195200815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>233.6954615469665</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>94.96463612958198</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>94.96463612958198</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6075,7 +6075,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y24" t="n">
-        <v>548.4453565401495</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.1066536671728</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C27" t="n">
-        <v>111.1066536671728</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D27" t="n">
-        <v>111.1066536671728</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>526.7184526376595</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>526.7184526376595</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>318.8669524321267</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.1066536671728</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="28">
@@ -6415,16 +6415,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>315.6850394389064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>72.23626279480629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>118.159522810121</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>118.159522810121</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>734.658293601653</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>734.658293601653</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>734.658293601653</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="X33" t="n">
-        <v>194.4883050441255</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.4883050441255</v>
+        <v>499.5061853699102</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>139.8759037590757</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>347.6362025240296</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>139.8759037590757</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7214,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>145.759124890594</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7257,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>679.0958513775852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7497,13 +7497,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>840.8921501805687</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V42" t="n">
-        <v>353.3011080883284</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W42" t="n">
-        <v>353.3011080883284</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X42" t="n">
-        <v>353.3011080883284</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="43">
@@ -7594,16 +7594,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>761.6974622895962</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W44" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>403.4586321852169</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>403.4586321852169</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>256.9240742121018</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>227.1326433157456</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9015,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2508595994748</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9957,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11145,16 +11145,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22626,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,22 +22790,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,22 +23063,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23276,10 +23276,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23467,7 +23467,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23510,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23552,7 +23552,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23750,7 +23750,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23820,13 +23820,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>89.74506185090959</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23975,22 +23975,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>100.6725664207016</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>72.77846258259058</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>12.2924541796084</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,16 +24218,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>403.4390107198425</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>69.17497612189926</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,16 +24294,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>15.21656608849737</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24339,10 +24339,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24452,13 +24452,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,10 +24525,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>12.77749687517976</v>
       </c>
       <c r="E27" t="n">
-        <v>66.73782500401047</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>182.397745374651</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24722,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,19 +24734,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>317.3055321907214</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>14.34584833358728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24889,13 +24889,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,7 +24917,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,10 +25002,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>44.73613196658759</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>143.656081349691</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25114,16 +25114,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384052</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>345.7616595229184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>54.06627727219926</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25369,10 +25369,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,13 +25394,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25409,7 +25409,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>19.85601043080646</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,10 +25521,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>143.994419684076</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25628,28 +25628,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>49.74981582707099</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>47.71142943728563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,31 +25907,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.68397329741569</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>15.05905093509479</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,16 +25998,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>70.3588251877606</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="E2" t="n">
         <v>91388.36989223282</v>
@@ -26326,34 +26326,34 @@
         <v>91388.3698922328</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223285</v>
-      </c>
       <c r="J2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="K2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26522,10 +26522,10 @@
         <v>-37841.86290078056</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076713</v>
+        <v>42927.56863076716</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076715</v>
+        <v>42927.5686307672</v>
       </c>
       <c r="E6" t="n">
         <v>76555.16863076718</v>
@@ -26534,34 +26534,34 @@
         <v>76555.16863076716</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="H6" t="n">
+        <v>76555.16863076715</v>
+      </c>
+      <c r="I6" t="n">
         <v>76555.16863076718</v>
       </c>
-      <c r="I6" t="n">
-        <v>76555.16863076721</v>
-      </c>
       <c r="J6" t="n">
-        <v>13495.22603166095</v>
+        <v>13495.22603166096</v>
       </c>
       <c r="K6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="L6" t="n">
+        <v>76555.16863076715</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="N6" t="n">
         <v>76555.16863076716</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76555.16863076719</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76555.16863076719</v>
       </c>
       <c r="O6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076716</v>
+        <v>76555.16863076718</v>
       </c>
     </row>
   </sheetData>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34790,7 +34790,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9091475161414</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35182,10 +35182,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,13 +35416,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35492,13 +35492,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35507,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35735,16 +35735,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36920,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37792,7 +37792,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37865,16 +37865,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M45" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840487</v>
+        <v>440041.0145983154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006065</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,13 +992,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>8.583694061601907</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1376,58 +1378,58 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="V14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>48.37278123983535</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1740,13 +1742,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1855,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>147.9845033927267</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2084,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>158.3230863031197</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,16 +2174,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>99.94299005688806</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>103.5335228664165</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>12.94771755361639</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,70 +2475,70 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T26" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2637,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2849,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>126.9470391372502</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3226,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,70 +3265,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3345,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>118.6422217161165</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3360,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>23.17777261684322</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3591,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>125.2132019625774</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>164.9116971427427</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,28 +3742,28 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3867,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>121.9333552767668</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W44" t="n">
         <v>241.0142888776591</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>122.2844662281158</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4446,13 +4448,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4507,7 +4509,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4749,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5123,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5221,10 +5223,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
         <v>41.77557929797318</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V14" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5388,19 +5390,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5455,31 +5457,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,19 +5597,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5628,16 +5630,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5695,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
         <v>710.516763498309</v>
       </c>
       <c r="E20" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5791,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>655.0361258579891</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C21" t="n">
-        <v>655.0361258579891</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D21" t="n">
-        <v>655.0361258579891</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E21" t="n">
-        <v>495.7986708525336</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>349.2641128794186</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>210.5332874620341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5864,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X21" t="n">
-        <v>655.0361258579891</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y21" t="n">
-        <v>655.0361258579891</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="22">
@@ -5932,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6032,7 +6034,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.6145917896818</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>950.9786529312257</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W24" t="n">
-        <v>500.6814290152826</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X24" t="n">
-        <v>292.8299288097498</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y24" t="n">
-        <v>292.8299288097498</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="25">
@@ -6184,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6211,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U26" t="n">
+      <c r="Y26" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6285,22 +6287,22 @@
         <v>156.0631229240681</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6314,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6415,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6499,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>499.5061853699102</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>325.0531560887832</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>734.658293601653</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>734.658293601653</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>734.658293601653</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>499.5061853699102</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>499.5061853699102</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>499.5061853699102</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>499.5061853699102</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6874,34 +6876,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6916,19 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6976,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>139.8759037590757</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>555.4877027295624</v>
+        <v>940.6452639784713</v>
       </c>
       <c r="W36" t="n">
-        <v>555.4877027295624</v>
+        <v>697.1964873343713</v>
       </c>
       <c r="X36" t="n">
-        <v>347.6362025240296</v>
+        <v>489.3449871288386</v>
       </c>
       <c r="Y36" t="n">
-        <v>139.8759037590757</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="37">
@@ -7129,13 +7131,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D38" t="n">
         <v>710.516763498309</v>
@@ -7214,10 +7216,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>304.9965798960495</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C39" t="n">
-        <v>304.9965798960495</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D39" t="n">
-        <v>304.9965798960495</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E39" t="n">
-        <v>145.759124890594</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7259,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7284,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y39" t="n">
-        <v>304.9965798960495</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>487.4018176583718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G41" t="n">
-        <v>243.9530410142718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>487.4018176583718</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>840.8921501805687</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>638.7055555393347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>638.7055555393347</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>638.7055555393347</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>395.2567788952347</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X42" t="n">
-        <v>395.2567788952347</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7594,16 +7596,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>552.3930418464681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>403.4586321852169</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>403.4586321852169</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>256.9240742121018</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7728,19 +7730,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7758,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7825,22 +7827,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,7 +8072,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9960,10 +9962,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10194,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,16 +10907,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.3233546697745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22592,16 +22594,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
@@ -22613,7 +22615,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22686,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22747,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22878,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>103.6517501748946</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23100,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23264,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,19 +23305,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23461,13 +23463,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>117.0281136687963</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23549,10 +23551,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>18.51256717168616</v>
       </c>
       <c r="V14" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23577,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>99.07228432480341</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23628,13 +23630,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>84.81608375669853</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23972,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24029,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>8.210097346747602</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24060,16 +24062,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>12.2924541796084</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24102,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,7 +24214,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>69.17497612189926</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>87.21011659902675</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T26" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24525,13 +24527,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>12.77749687517976</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>9.655052377667033</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.397745374651</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25014,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>25.50780978689276</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>44.73613196658759</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25114,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>179.7131144384052</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25233,10 +25235,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>54.06627727219926</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25248,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,10 +25292,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>209.6228145325821</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25479,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>19.85601043080646</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>40.86128806073475</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,28 +25630,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>120.0869518323295</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25755,19 +25757,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>49.74981582707099</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>180.9561245870265</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0016451065613</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W44" t="n">
         <v>108.226679839754</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>15.05905093509479</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="D2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="C2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="E2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="K2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="O2" t="n">
-        <v>91388.36989223282</v>
-      </c>
       <c r="P2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078056</v>
+        <v>-37841.86290078057</v>
       </c>
       <c r="C6" t="n">
         <v>42927.56863076716</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.5686307672</v>
+        <v>42927.56863076718</v>
       </c>
       <c r="E6" t="n">
+        <v>76555.16863076721</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76555.16863076721</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="H6" t="n">
         <v>76555.16863076718</v>
-      </c>
-      <c r="F6" t="n">
-        <v>76555.16863076716</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76555.16863076715</v>
       </c>
       <c r="I6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166096</v>
+        <v>13495.22603166094</v>
       </c>
       <c r="K6" t="n">
         <v>76555.16863076716</v>
       </c>
       <c r="L6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="M6" t="n">
         <v>76555.16863076715</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>76555.16863076718</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>76555.16863076716</v>
       </c>
-      <c r="O6" t="n">
-        <v>76555.16863076718</v>
-      </c>
       <c r="P6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,7 +34792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,10 +35184,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,7 +35257,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N27" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36914,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37792,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N42" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O42" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983154</v>
+        <v>337788.7049113788</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,67 +904,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>8.583694061601907</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9174757594852</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1691,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>48.37278123983535</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1736,19 +1736,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.9845033927267</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,10 +2086,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
@@ -2128,7 +2128,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.3230863031197</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>58.64124924790688</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.94771755361639</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,23 +2554,23 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>135.4141600157168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>35.42520376846692</v>
       </c>
     </row>
     <row r="28">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,70 +2791,70 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>39.87279829194112</v>
       </c>
     </row>
     <row r="31">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>63.88882306452232</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>46.01752716430177</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3204,37 +3204,37 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2853856434421</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3401,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>23.17777261684322</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="37">
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3641,16 +3641,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>164.9116971427427</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3678,43 +3678,43 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -3881,13 +3881,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>70.73885857389313</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
         <v>417.4543050195419</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W3" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4512,16 +4512,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>621.3887892094411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>472.4543795481899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>313.2169245427344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>166.6823665696193</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>27.95154115223485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4886,43 +4886,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
         <v>19.28114311021272</v>
@@ -4980,10 +4980,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S11" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5223,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.2836868729568</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C15" t="n">
-        <v>487.2836868729568</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D15" t="n">
-        <v>438.4222916812039</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E15" t="n">
-        <v>279.1848366757484</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
         <v>132.6502787026334</v>
@@ -5360,13 +5360,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
         <v>542.809531908403</v>
@@ -5384,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>487.2836868729568</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>487.2836868729568</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.2836868729568</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5457,31 +5457,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,13 +5597,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
         <v>725.4530095217538</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V18" t="n">
-        <v>109.5807722530562</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>109.5807722530562</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
         <v>506.1786963984129</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>474.7416984028202</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C21" t="n">
-        <v>474.7416984028202</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D21" t="n">
-        <v>325.807288741569</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>166.5698337361135</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>634.6640077999109</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>634.6640077999109</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X21" t="n">
-        <v>634.6640077999109</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y21" t="n">
-        <v>634.6640077999109</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>950.9786529312257</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>777.5613083818946</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>777.5613083818946</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>777.5613083818946</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>777.5613083818946</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>777.5613083818946</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>156.0631229240681</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="C27" t="n">
-        <v>156.0631229240681</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D27" t="n">
-        <v>156.0631229240681</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0631229240681</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X27" t="n">
-        <v>156.0631229240681</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.0631229240681</v>
+        <v>726.0875267598396</v>
       </c>
     </row>
     <row r="28">
@@ -6411,16 +6411,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6496,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.0571555106362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C30" t="n">
-        <v>817.1412885554689</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6548,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W32" t="n">
-        <v>233.7108255783361</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>281.5846883638847</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>940.6452639784713</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>697.1964873343713</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>489.3449871288386</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>281.5846883638847</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E38" t="n">
-        <v>467.067986854209</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
         <v>20.03527576299844</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7289,16 +7289,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>492.3847606029253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>325.807288741569</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>325.807288741569</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W42" t="n">
-        <v>227.0414418751666</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7599,13 +7599,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="C44" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="D44" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="E44" t="n">
+        <v>518.2486856454962</v>
+      </c>
+      <c r="F44" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="C44" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="D44" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="E44" t="n">
-        <v>31.35113235729608</v>
-      </c>
-      <c r="F44" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
         <v>31.35113235729608</v>
@@ -7684,16 +7684,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.7999090013961</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="45">
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7827,22 +7827,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>141.7938727127821</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>103.6517501748946</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>284.3390338194077</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3759156176843</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>18.51256717168616</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23579,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>99.07228432480341</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,25 +23779,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>84.81608375669853</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,10 +23974,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.210097346747602</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>88.80381631673187</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24104,13 +24104,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>87.21011659902675</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>342.2575625303455</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24527,19 +24527,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>9.655052377667033</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2574920088374</v>
       </c>
     </row>
     <row r="28">
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24736,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>165.8098974853633</v>
       </c>
     </row>
     <row r="31">
@@ -24891,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24940,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,13 +24976,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25016,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>25.50780978689276</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25061,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>159.7554580391757</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25092,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25168,16 +25168,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>257.0136044766737</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25238,7 +25238,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25289,10 +25289,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>209.6228145325821</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="37">
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25478,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>40.86128806073475</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,10 +25645,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>180.9561245870265</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,16 +25870,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>164.3376445463981</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>137.40686139585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26067,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>239.4980740029173</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="E2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="F2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="G2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="K2" t="n">
         <v>91388.3698922328</v>
@@ -26346,13 +26346,13 @@
         <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="P2" t="n">
         <v>91388.3698922328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078057</v>
+        <v>-50059.87352082101</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076716</v>
+        <v>30709.55801072672</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076718</v>
+        <v>30709.55801072672</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076721</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.1580107267</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166094</v>
+        <v>1277.215411620498</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072672</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072672</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.1580107267</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,7 +35974,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36205,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37153,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337788.7049113788</v>
+        <v>429790.5534944771</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.8892983910557</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -989,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U9" t="n">
-        <v>55.57566235103572</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.265316057196634</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>31.79013109909392</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>241.0142888776591</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>111.7765806969846</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="16">
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="18">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.05769526855297</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1988,10 +1988,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="21">
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>58.64124924790688</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2250,49 +2250,49 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2368,10 +2368,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.47627913313511</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="27">
@@ -2639,25 +2639,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.42520376846692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,13 +2809,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>223.5500084481726</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>39.87279829194112</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>46.01752716430177</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>82.46119763909351</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>110.3476904017666</v>
       </c>
     </row>
     <row r="37">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>111.0299893707267</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>50.46697834767995</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>70.34400780127524</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>8.831844153734401</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>190.3453970742849</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.5825927271064</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>802.5825927271064</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>933.8659450146204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>933.8659450146204</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>705.6423267510095</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>470.4902185192667</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>227.0414418751666</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="4">
@@ -4524,7 +4524,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4594,22 +4594,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
         <v>506.1786963984129</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>156.0631229240681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.33569644483418</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>90.33569644483418</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4834,22 +4834,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>705.7335281915883</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
         <v>725.4530095217538</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915883</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>486.3105406908639</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>278.55024192591</v>
       </c>
     </row>
     <row r="13">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5363,46 +5363,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5466,13 +5466,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
         <v>262.7299197543128</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="V17" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W17" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X17" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y17" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="V17" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W17" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>913.4938269565423</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>678.3417187247995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5773,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
         <v>506.1786963984129</v>
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5864,19 +5864,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>627.7355178317791</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>384.2867411876791</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
@@ -6016,25 +6016,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="24">
@@ -6098,16 +6098,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
         <v>19.28114311021272</v>
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
         <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
         <v>31.35113235729608</v>
@@ -6262,16 +6262,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.6850394389064</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>726.0875267598396</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C27" t="n">
-        <v>726.0875267598396</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D27" t="n">
-        <v>577.1531170985884</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E27" t="n">
-        <v>417.9156620931329</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8705608694022</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y27" t="n">
-        <v>726.0875267598396</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="28">
@@ -6411,7 +6411,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>649.1947276839472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>474.7416984028202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,13 +6554,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>649.1947276839472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6651,10 +6651,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>266.0282188019862</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>399.5118995681682</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>156.0631229240681</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>109.5807722530562</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>358.0940480307835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G35" t="n">
-        <v>114.6452713866835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
         <v>31.35113235729608</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>601.5428246748836</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>601.5428246748836</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>444.0253891924244</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7025,16 +7025,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>444.0253891924244</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7116,31 +7116,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
         <v>20.03527576299844</v>
@@ -7262,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="40">
@@ -7359,7 +7359,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>333.7844730889342</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>156.0631229240681</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J43" t="n">
         <v>19.28114311021272</v>
@@ -7590,31 +7590,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>953.9655401424092</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C44" t="n">
-        <v>953.9655401424092</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D44" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
         <v>31.35113235729608</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.9655401424092</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7736,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7830,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,10 +9254,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133073</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22643,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>62.92434029420124</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7938727127821</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22764,10 +22764,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22928,7 +22928,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>284.3390338194077</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,16 +23074,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>308.7646895842778</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,10 +23153,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U9" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.725383157348171</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>70.3588251877606</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>173.9828541043836</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>316.4871080036351</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>275.3266899823874</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>145.2236497783945</v>
@@ -23585,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>33.29263169639931</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23630,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="16">
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23788,19 +23788,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="18">
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.10013888409016</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,7 +23867,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24013,22 +24013,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.812370168306</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24053,13 +24053,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>88.80381631673187</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24104,7 +24104,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>342.2575625303455</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24502,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="27">
@@ -24527,25 +24527,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="Y27" t="n">
-        <v>170.2574920088374</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24651,10 +24651,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,13 +24697,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>281.0800836691044</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,16 +24761,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>28.14497471274697</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>165.8098974853633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24891,13 +24891,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,7 +24976,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.25440111315061</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25061,7 +25061,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>159.7554580391757</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>257.0136044766737</v>
+        <v>108.6003065196844</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>95.33500537553773</v>
       </c>
     </row>
     <row r="37">
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>115.2022481737659</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25356,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>207.0389011273226</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>34.03922302265721</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>278.8969609161378</v>
+        <v>298.773990369733</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>136.2373682396495</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25772,7 +25772,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25809,7 +25809,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>46.33425578299913</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>164.3376445463981</v>
+        <v>304.2160632730032</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25921,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>36.26901108812089</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="D2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="E2" t="n">
         <v>91388.36989223283</v>
@@ -26328,7 +26328,7 @@
         <v>91388.36989223282</v>
       </c>
       <c r="G2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
@@ -26337,13 +26337,13 @@
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223283</v>
@@ -26352,10 +26352,10 @@
         <v>91388.36989223283</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50059.87352082101</v>
+        <v>-39063.6639627846</v>
       </c>
       <c r="C6" t="n">
-        <v>30709.55801072672</v>
+        <v>41705.76756876315</v>
       </c>
       <c r="D6" t="n">
-        <v>30709.55801072672</v>
+        <v>41705.76756876315</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="F6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="G6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="H6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="I6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="J6" t="n">
-        <v>1277.215411620498</v>
+        <v>12273.4249696569</v>
       </c>
       <c r="K6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="L6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="M6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="N6" t="n">
-        <v>64337.15801072672</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="O6" t="n">
-        <v>64337.15801072672</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="P6" t="n">
-        <v>64337.1580107267</v>
+        <v>75333.36756876313</v>
       </c>
     </row>
   </sheetData>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,10 +35974,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
